--- a/medicine/Sexualité et sexologie/Camille_Emmanuelle/Camille_Emmanuelle.xlsx
+++ b/medicine/Sexualité et sexologie/Camille_Emmanuelle/Camille_Emmanuelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camille Emmanuelle est le nom de plume d'une journaliste et écrivaine française née le 18 juillet 1980 et spécialisée dans les questions de sexualité.
 </t>
@@ -513,16 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines et formation
-Son père est médecin, et sa mère, sage-femme[1]. Ancienne élève des classes préparatoires littéraires, elle est diplômée de l'Institut d'études politiques de Grenoble (promotion 2002)[2] et d'études approfondies en science politique[3]. Elle a également suivi une formation de sexothérapeute[3].
-Carrière
-Elle commence à travailler dans la communication, puis devient pigiste[1].
-Elle choisit le pseudonyme « Emmanuelle » en hommage au roman autobiographique d'Emmanuelle Arsan[1].
-En 2014, elle écrit le livre Paris couche-toi là ! aux éditions Parigramme, et en 2016, Sexpowerment, le sexe libère la femme (et l'homme) aux éditions Anne Carrière[1].
-Parallèlement, elle est chroniqueuse pour Le Huffington Post, Slate ou encore L'Obs[4].
-En septembre 2021, elle consacre un livre au sort des proches de personnes frappées par le terrorisme[5].
-Vie privée
-Elle est mariée au dessinateur Luz et ils sont parents d'une fille née en 2015[1].
+          <t>Origines et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père est médecin, et sa mère, sage-femme. Ancienne élève des classes préparatoires littéraires, elle est diplômée de l'Institut d'études politiques de Grenoble (promotion 2002) et d'études approfondies en science politique. Elle a également suivi une formation de sexothérapeute.
 </t>
         </is>
       </c>
@@ -548,10 +557,90 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle commence à travailler dans la communication, puis devient pigiste.
+Elle choisit le pseudonyme « Emmanuelle » en hommage au roman autobiographique d'Emmanuelle Arsan.
+En 2014, elle écrit le livre Paris couche-toi là ! aux éditions Parigramme, et en 2016, Sexpowerment, le sexe libère la femme (et l'homme) aux éditions Anne Carrière.
+Parallèlement, elle est chroniqueuse pour Le Huffington Post, Slate ou encore L'Obs.
+En septembre 2021, elle consacre un livre au sort des proches de personnes frappées par le terrorisme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Camille_Emmanuelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camille_Emmanuelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est mariée au dessinateur Luz et ils sont parents d'une fille née en 2015.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Camille_Emmanuelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camille_Emmanuelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Paris couche-toi là !, Paris, Éditions Parigramme, 3 avril 2014, 205 p. (ISBN 978-2-84096-844-3 et 2-84096-844-4)
 Sexpowerment : le sexe libère la femme (et l'homme), Paris, éditions Anne Carrière, 7 avril 2016, 240 p. (ISBN 978-2-84337-768-6)
